--- a/wiringLists/Wiring List.xlsx
+++ b/wiringLists/Wiring List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="135">
   <si>
     <t>SCL</t>
   </si>
@@ -394,6 +394,33 @@
   </si>
   <si>
     <t>The NO terminal will be open when the door is shut, resulting in a logical "1" at GPIO14</t>
+  </si>
+  <si>
+    <t>PIR connection to ESP32</t>
+  </si>
+  <si>
+    <t>OPTION - Connect one end of pullup resistor to 3V3, the other end to GPIO39</t>
+  </si>
+  <si>
+    <t>GPIO39</t>
+  </si>
+  <si>
+    <t>PIR data terminal</t>
+  </si>
+  <si>
+    <t>PIR Gnd Terminal</t>
+  </si>
+  <si>
+    <t>PIR Vcc Terminal</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>testing revealed pullup may notbe  necessary;</t>
+  </si>
+  <si>
+    <t>the data terminal will output 1 when motion is detected</t>
   </si>
 </sst>
 </file>
@@ -988,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J133"/>
+  <dimension ref="B1:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I112" sqref="I112"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1783,7 +1810,9 @@
     <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44" s="21"/>
       <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
+      <c r="D44" s="23" t="s">
+        <v>106</v>
+      </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
@@ -1791,830 +1820,866 @@
       <c r="I44" s="13"/>
       <c r="J44" s="13"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="21"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-    </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="21"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="21"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="26"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E49" s="26"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="40" t="s">
-        <v>16</v>
+      <c r="B49" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" s="31" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="B52" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+    </row>
+    <row r="55" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" s="31" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="B55" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-    </row>
-    <row r="58" spans="2:10" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
+      <c r="D56" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B65" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="32" t="s">
-        <v>50</v>
+      <c r="B65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D67" s="33"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D68" s="33"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B69" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="20"/>
+      <c r="D70" s="34"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B67" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D70" s="33"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D71" s="33"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="34" t="s">
-        <v>50</v>
-      </c>
+      <c r="B72" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="33"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C73" s="20"/>
-      <c r="D73" s="34"/>
+        <v>63</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" s="33" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D75" s="33"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D76" s="33"/>
+    </row>
+    <row r="77" spans="2:10" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="20"/>
+      <c r="D78" s="33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="33"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="33"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D76" s="33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D77" s="33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D78" s="33"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D79" s="33"/>
     </row>
-    <row r="80" spans="2:10" s="35" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="33"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C81" s="20"/>
-      <c r="D81" s="33" t="s">
-        <v>71</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" s="33"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B82" s="1" t="s">
+      <c r="D82" s="33"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D83" s="33"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B84" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B91" s="21"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B93" s="6"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E93" s="26"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="8"/>
+    </row>
+    <row r="94" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E94" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B95" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D95" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H95" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B96" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H96" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B97" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="33"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D83" s="33"/>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B84" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D84" s="33"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D85" s="33"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D86" s="33"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D87" s="33"/>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B94" s="21"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B96" s="6"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E96" s="26"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="8"/>
-    </row>
-    <row r="97" spans="2:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E97" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="11" t="s">
-        <v>16</v>
+      <c r="F97" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H97" s="15" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B98" s="12" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F98" s="13" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H98" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B99" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E99" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F99" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G99" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H99" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B100" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C100" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" ht="24" x14ac:dyDescent="0.2">
+      <c r="B99" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="30"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B102" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B103" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F100" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H100" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B101" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F101" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H101" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="B102" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C102" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="29"/>
-      <c r="I102" s="30"/>
+      <c r="D103" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B104" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D104" s="1"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B105" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D105" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
+      <c r="B105" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B106" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B109" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D109" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B110" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B107" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B108" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B109" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D110" s="1"/>
+      <c r="D110" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B111" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="D111" s="1"/>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B112" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D112" s="32" t="s">
-        <v>50</v>
+      <c r="B112" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B113" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D114" s="33"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D115" s="33"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B116" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D116" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B117" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C117" s="20"/>
+      <c r="D117" s="34"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B118" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B114" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D114" s="1"/>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B115" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B116" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D117" s="33"/>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D118" s="33"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B119" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C119" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D119" s="34" t="s">
-        <v>50</v>
-      </c>
+      <c r="B119" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="33"/>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C120" s="20"/>
-      <c r="D120" s="34"/>
+        <v>63</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D120" s="33" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B121" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C121" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C121" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D121" s="33"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D122" s="33"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D123" s="33"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B124" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D124" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C125" s="20"/>
+      <c r="D125" s="33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D121" s="33"/>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B122" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" s="33"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B123" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D123" s="33" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B124" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C124" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D124" s="33"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="D125" s="33"/>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D126" s="33"/>
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B127" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C127" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D127" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="3"/>
+      <c r="B127" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="33"/>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C128" s="20"/>
-      <c r="D128" s="33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="129" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B129" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>6</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D128" s="33"/>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D129" s="33"/>
     </row>
-    <row r="130" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B130" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D130" s="33"/>
-    </row>
-    <row r="131" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B131" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D131" s="33"/>
-    </row>
-    <row r="132" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D132" s="33"/>
-    </row>
-    <row r="133" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D133" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="43" max="16383" man="1"/>
+    <brk id="90" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 

--- a/wiringLists/Wiring List.xlsx
+++ b/wiringLists/Wiring List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="141">
   <si>
     <t>SCL</t>
   </si>
@@ -396,9 +396,6 @@
     <t>The NO terminal will be open when the door is shut, resulting in a logical "1" at GPIO14</t>
   </si>
   <si>
-    <t>PIR connection to ESP32</t>
-  </si>
-  <si>
     <t>OPTION - Connect one end of pullup resistor to 3V3, the other end to GPIO39</t>
   </si>
   <si>
@@ -421,6 +418,27 @@
   </si>
   <si>
     <t>the data terminal will output 1 when motion is detected</t>
+  </si>
+  <si>
+    <t>1K ohm pullup resistor A</t>
+  </si>
+  <si>
+    <t>1K ohm pullup resistor B</t>
+  </si>
+  <si>
+    <t>100k ohm pullup resistor A</t>
+  </si>
+  <si>
+    <t>100k ohm pullup resistor B</t>
+  </si>
+  <si>
+    <t>Photoresistor dark resistance is 20K-30K ohm, light resistance is 2K ohm</t>
+  </si>
+  <si>
+    <t>GPIO19</t>
+  </si>
+  <si>
+    <t>PIR HC-SR501 connection to ESP32</t>
   </si>
 </sst>
 </file>
@@ -1017,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1980,7 +1998,7 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>6</v>
@@ -1991,7 +2009,7 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>56</v>
@@ -2039,7 +2057,7 @@
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>6</v>
@@ -2050,7 +2068,7 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>47</v>
@@ -2076,7 +2094,7 @@
         <v>8</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.2">
@@ -2126,7 +2144,7 @@
         <v>63</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="D73" s="33" t="s">
         <v>58</v>
@@ -2210,7 +2228,7 @@
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" s="32" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C84" s="20" t="s">
         <v>11</v>
@@ -2230,7 +2248,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.2">
@@ -2238,27 +2256,27 @@
         <v>42</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>8</v>
@@ -2269,10 +2287,10 @@
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>18</v>

--- a/wiringLists/Wiring List.xlsx
+++ b/wiringLists/Wiring List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="142">
   <si>
     <t>SCL</t>
   </si>
@@ -192,15 +192,9 @@
     <t>The NO terminal will be open when the door is shut, resulting in a logical "1" at GPIO35</t>
   </si>
   <si>
-    <t>Uses ESP32 internal pullup resistor</t>
-  </si>
-  <si>
     <t>Hiletgo LM393 FC37 moisture monitor</t>
   </si>
   <si>
-    <t>GPIO36</t>
-  </si>
-  <si>
     <t>Comparator Vcc</t>
   </si>
   <si>
@@ -213,9 +207,6 @@
     <t>Comparator A0</t>
   </si>
   <si>
-    <t>Uses ESP32 ADC 0</t>
-  </si>
-  <si>
     <t>DHTxx Temp/Hum Sensor Connection</t>
   </si>
   <si>
@@ -435,10 +426,22 @@
     <t>Photoresistor dark resistance is 20K-30K ohm, light resistance is 2K ohm</t>
   </si>
   <si>
-    <t>GPIO19</t>
-  </si>
-  <si>
     <t>PIR HC-SR501 connection to ESP32</t>
+  </si>
+  <si>
+    <t>Use moisture sensor, do not use accomanying circuit board</t>
+  </si>
+  <si>
+    <t>GPIO32</t>
+  </si>
+  <si>
+    <t>Sensor terminal 1</t>
+  </si>
+  <si>
+    <t>Sensor terminal 2</t>
+  </si>
+  <si>
+    <t>Use touch sensor to detect moisture</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1039,7 @@
   <dimension ref="B1:J130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1056,7 +1059,7 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E1" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
@@ -1064,12 +1067,12 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E3" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E4" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
@@ -1080,7 +1083,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1099,19 +1102,19 @@
         <v>14</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H7" s="39" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J7" s="40" t="s">
         <v>33</v>
@@ -1315,10 +1318,10 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -1333,12 +1336,12 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E18" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E19" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
@@ -1349,7 +1352,7 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -1362,28 +1365,28 @@
         <v>4</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>16</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
@@ -1412,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
@@ -1441,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
@@ -1504,10 +1507,10 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
@@ -1519,10 +1522,10 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -1548,7 +1551,7 @@
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
@@ -1561,7 +1564,7 @@
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
@@ -1585,7 +1588,7 @@
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -1604,22 +1607,22 @@
         <v>14</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H34" s="39" t="s">
         <v>16</v>
       </c>
       <c r="I34" s="39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J34" s="40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
@@ -1703,7 +1706,7 @@
         <v>5</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J37" s="15" t="s">
         <v>25</v>
@@ -1732,7 +1735,7 @@
         <v>8</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J38" s="15" t="s">
         <v>8</v>
@@ -1740,7 +1743,7 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>48</v>
@@ -1753,15 +1756,15 @@
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J39" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40" s="12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>49</v>
@@ -1774,15 +1777,15 @@
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J40" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>36</v>
@@ -1793,7 +1796,7 @@
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J41" s="15" t="s">
         <v>24</v>
@@ -1801,10 +1804,10 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C42" s="41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -1829,7 +1832,7 @@
       <c r="B44" s="21"/>
       <c r="C44" s="13"/>
       <c r="D44" s="23" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
@@ -1842,7 +1845,7 @@
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="7"/>
@@ -1966,10 +1969,10 @@
     </row>
     <row r="52" spans="2:10" s="31" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="B52" s="27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D52" s="28"/>
       <c r="E52" s="28"/>
@@ -1998,18 +2001,18 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>56</v>
@@ -2057,7 +2060,7 @@
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>6</v>
@@ -2068,7 +2071,7 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>47</v>
@@ -2094,7 +2097,7 @@
         <v>8</v>
       </c>
       <c r="D66" s="33" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.2">
@@ -2116,23 +2119,27 @@
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C70" s="20"/>
-      <c r="D70" s="34"/>
+      <c r="D70" s="33" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="33"/>
+        <v>138</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>8</v>
@@ -2140,26 +2147,10 @@
       <c r="D72" s="33"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D73" s="33" t="s">
-        <v>58</v>
-      </c>
+      <c r="D73" s="33"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D74" s="33" t="s">
-        <v>65</v>
-      </c>
+      <c r="D74" s="33"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D75" s="33"/>
@@ -2169,7 +2160,7 @@
     </row>
     <row r="77" spans="2:10" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C77" s="20" t="s">
         <v>11</v>
@@ -2186,11 +2177,11 @@
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C78" s="20"/>
       <c r="D78" s="33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.2">
@@ -2213,10 +2204,10 @@
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D81" s="33"/>
     </row>
@@ -2228,7 +2219,7 @@
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" s="32" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C84" s="20" t="s">
         <v>11</v>
@@ -2248,7 +2239,7 @@
         <v>6</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.2">
@@ -2256,27 +2247,27 @@
         <v>42</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B87" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>8</v>
@@ -2287,10 +2278,10 @@
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B89" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>18</v>
@@ -2300,7 +2291,7 @@
       <c r="B91" s="21"/>
       <c r="C91" s="13"/>
       <c r="D91" s="23" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
@@ -2312,7 +2303,7 @@
       <c r="B93" s="6"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E93" s="26"/>
       <c r="F93" s="7"/>
@@ -2324,10 +2315,10 @@
         <v>4</v>
       </c>
       <c r="C94" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D94" s="10" t="s">
         <v>105</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="E94" s="10" t="s">
         <v>12</v>
@@ -2347,7 +2338,7 @@
         <v>29</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>2</v>
@@ -2370,7 +2361,7 @@
         <v>26</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D96" s="14" t="s">
         <v>3</v>
@@ -2450,10 +2441,10 @@
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B102" s="32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C102" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D102" s="32" t="s">
         <v>50</v>
@@ -2472,7 +2463,7 @@
         <v>6</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.2">
@@ -2480,7 +2471,7 @@
         <v>42</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D104" s="1"/>
     </row>
@@ -2489,10 +2480,10 @@
         <v>37</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.2">
@@ -2514,10 +2505,10 @@
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B109" s="32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C109" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D109" s="32" t="s">
         <v>50</v>
@@ -2531,7 +2522,7 @@
         <v>6</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.2">
@@ -2539,7 +2530,7 @@
         <v>44</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D111" s="1"/>
     </row>
@@ -2548,10 +2539,10 @@
         <v>45</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.2">
@@ -2573,10 +2564,10 @@
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B116" s="32" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C116" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D116" s="34" t="s">
         <v>50</v>
@@ -2584,14 +2575,14 @@
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B117" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C117" s="20"/>
       <c r="D117" s="34"/>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B118" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>6</v>
@@ -2600,7 +2591,7 @@
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B119" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>8</v>
@@ -2609,18 +2600,18 @@
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B120" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D120" s="33" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B121" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C121" s="36" t="s">
         <v>32</v>
@@ -2635,10 +2626,10 @@
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B124" s="32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C124" s="20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D124" s="34" t="s">
         <v>50</v>
@@ -2651,11 +2642,11 @@
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B125" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C125" s="20"/>
       <c r="D125" s="33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.2">
@@ -2678,10 +2669,10 @@
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D128" s="33"/>
     </row>
